--- a/done/final_put.xlsx
+++ b/done/final_put.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,24 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonwicky/Documents/EPFL/Semestre 4/ProgOS_Projet/Shared/part02/done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3977793D-BBC0-4144-9A3E-4E54EBDDAE10}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA69BB3E-0F91-0B43-B5EF-0C7C98D5FC1E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_put" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.1" hidden="1">final_put!$DA$1:$DA$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">final_put!$DA$1:$DA$10</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">final_put!$DA$1:$DA$10</definedName>
-  </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -597,7 +592,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR"/>
+              <a:rPr lang="fr-FR" sz="2800"/>
               <a:t>Put, fixed key, N=10</a:t>
             </a:r>
           </a:p>
@@ -724,14 +719,12 @@
             </c:minus>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
-                <a:round/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -821,7 +814,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" sz="2800"/>
                   <a:t>W</a:t>
                 </a:r>
               </a:p>
@@ -941,7 +934,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" sz="2800"/>
                   <a:t>Time (ms)</a:t>
                 </a:r>
               </a:p>
@@ -1603,16 +1596,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>110</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1936,11 +1929,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DB10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CO12" workbookViewId="0">
-      <selection activeCell="DC16" sqref="DC16"/>
+      <selection activeCell="DI28" sqref="DI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/done/final_put.xlsx
+++ b/done/final_put.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonwicky/Documents/EPFL/Semestre 4/ProgOS_Projet/Shared/part02/done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA69BB3E-0F91-0B43-B5EF-0C7C98D5FC1E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9A4D00-5F36-C543-8253-167A6AC4CA9F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -871,7 +871,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -985,7 +985,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1932,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CO12" workbookViewId="0">
-      <selection activeCell="DI28" sqref="DI28"/>
+    <sheetView tabSelected="1" topLeftCell="CM13" workbookViewId="0">
+      <selection activeCell="DD70" sqref="DD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
